--- a/Archivos de trabajo/Base de datos.xlsx
+++ b/Archivos de trabajo/Base de datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\Paper ITCRM\Paper-ITCRM.SF\Bibliografía\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd03ae9016654ccc/Escritorio/Paper-ITCRM.SF/Archivos de trabajo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595AA83F-3C0C-4F89-A26F-0FDA211DB5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{595AA83F-3C0C-4F89-A26F-0FDA211DB5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2344D355-C803-4B23-AF28-5106AD5C8776}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exportaciones" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,10 +350,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -356,7 +372,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -368,7 +384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -378,11 +394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487A140A-DA18-48E7-A69B-A0AD781780A0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Archivos de trabajo/Base de datos.xlsx
+++ b/Archivos de trabajo/Base de datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd03ae9016654ccc/Escritorio/Paper-ITCRM.SF/Archivos de trabajo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcorvalan\Desktop\Trabajo\Paper\Paper-ITCRM.SF\Archivos de trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{595AA83F-3C0C-4F89-A26F-0FDA211DB5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2344D355-C803-4B23-AF28-5106AD5C8776}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E19E56F-1F28-473A-ADE0-2ED5DDFB175E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exportaciones" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,19 @@
     <sheet name="TC" sheetId="2" r:id="rId3"/>
     <sheet name="IPC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -348,17 +357,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>2+2</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -372,7 +387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -384,7 +399,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -398,7 +413,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Archivos de trabajo/Base de datos.xlsx
+++ b/Archivos de trabajo/Base de datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcorvalan\Desktop\Trabajo\Paper\Paper-ITCRM.SF\Archivos de trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajos\Papers\Paper-ITCRM.SF\Archivos de trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E19E56F-1F28-473A-ADE0-2ED5DDFB175E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADB3B1D-6EF0-4BEE-ABC9-0A3CE22CEA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exportaciones" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -357,23 +360,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>2+2</f>
-        <v>4</v>
       </c>
     </row>
   </sheetData>
